--- a/Psemaine49_DEV.xlsx
+++ b/Psemaine49_DEV.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">CC3</t>
   </si>
   <si>
-    <t xml:space="preserve">Roubaud</t>
+    <t xml:space="preserve">Gougeon g</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.37109375" defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
